--- a/data/trans_bre/P54_A_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_3_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,22 +604,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,33; 16,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,46; 196,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -722,22 +722,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,25; 29,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,14; 644,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,46%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -802,22 +802,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,94; 19,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,94; 2,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,44; 360,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,09</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>135,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,58%</t>
         </is>
       </c>
     </row>
@@ -882,22 +882,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,38; 26,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,08; 2,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,67; 409,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -924,27 +924,27 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,92</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,84</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,1; 19,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,05; 281,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1004,22 +1004,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>6,0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,76%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>224,6%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>301,2%</t>
         </is>
       </c>
     </row>
@@ -1122,22 +1122,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,97; 14,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 1,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 2,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,77; 147,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1148,6 +1148,13 @@
       <c r="H17" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_3_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,93%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.6914138231805061</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.03931552130430839</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-20,33; 16,78</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-72,46; 196,74</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-20.32968232804213</v>
+      </c>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="6" t="n">
+        <v>-0.7245966095370111</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.78169532833358</v>
+      </c>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="6" t="n">
+        <v>1.967439910543825</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>10,88</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>58,99%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-20,25; 29,38</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,67</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,76</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-61,14; 644,03</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="C7" s="5" t="n">
+        <v>10.88105691894362</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.091591647028051</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.658622132015269</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.589911094556545</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,06</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,62</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>62,45%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-38,46%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-20.24605527943677</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.6113853578831774</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,94; 19,05</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,94; 2,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 6,03</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-32,44; 360,3</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>29.37911560570193</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>10.38833574542797</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.49879332208589</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>6.44027917938236</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,34 +751,24 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>16,09</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,02</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>135,02%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-13,58%</t>
+      <c r="C10" s="5" t="n">
+        <v>7.056918504265064</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.5235674491463391</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.777047185521937</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.6245446717543208</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.3726863486816171</v>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -877,204 +776,126 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>4,38; 26,53</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,51</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,08; 2,24</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>19,67; 409,41</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.936108374789616</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.346945765745279</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.3244104373040914</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>19.04554272946906</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.791689514345401</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.689215975815688</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>3.602980149112534</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,92</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,84</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>31,18%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,1; 19,05</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,29</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-51,05; 281,49</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>16.0931773256199</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.9391520066686287</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.04244134764706028</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>1.350189792523339</v>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.0393916867756537</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>6,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>4.37500590255086</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.204373079064539</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.1966706401248261</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 18,73</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>26.53363702413047</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.946634713335682</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.459267117013886</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>4.094056980782145</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +903,201 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>8,32</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>65,76%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>224,6%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>301,2%</t>
-        </is>
-      </c>
+      <c r="C16" s="5" t="n">
+        <v>3.924579393361829</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.923007638367195</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.3117885307956378</v>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H16" s="6" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 14,15</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,31; 1,96</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 2,29</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-4,77; 147,08</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-8.100220164981742</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="inlineStr"/>
+      <c r="F17" s="6" t="n">
+        <v>-0.5105007050370974</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>19.05004452691729</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>9.631214873743493</v>
+      </c>
+      <c r="E18" s="5" t="inlineStr"/>
+      <c r="F18" s="6" t="n">
+        <v>2.814872156845859</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>5.997296324349393</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="inlineStr"/>
+      <c r="H19" s="6" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5" t="inlineStr"/>
+      <c r="E20" s="5" t="inlineStr"/>
+      <c r="F20" s="6" t="inlineStr"/>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>18.72543274589668</v>
+      </c>
+      <c r="D21" s="5" t="inlineStr"/>
+      <c r="E21" s="5" t="inlineStr"/>
+      <c r="F21" s="6" t="inlineStr"/>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>8.318292383627664</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.7164534388150408</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.8611875920483998</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.6575685929195849</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>2.707249354892894</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>3.728584132668298</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0.9746794905712752</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.2206979530583457</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.08483746503954685</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.04765042147033887</v>
+      </c>
+      <c r="G23" s="6" t="inlineStr"/>
+      <c r="H23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>14.14787753869439</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.172570925896313</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.4003972706928</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>1.470795289526442</v>
+      </c>
+      <c r="G24" s="6" t="inlineStr"/>
+      <c r="H24" s="6" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1161,15 +1106,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
